--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -1,22 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298493D7-197D-4AFD-A14A-1ABE4C89CFAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Total Costs" sheetId="1" r:id="rId1"/>
+    <sheet name="Components Capacity and Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Yearly Costs Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Yearly Energy Averages" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+  <si>
+    <t>NPC [USD]</t>
+  </si>
+  <si>
+    <t>Total actualized Operation cost [USD]</t>
+  </si>
+  <si>
+    <t>Total non-actualized Operation cost [USD]</t>
+  </si>
+  <si>
+    <t>Total actualized Investment cost [USD]</t>
+  </si>
+  <si>
+    <t>Salvage Value at year 2 [USD]</t>
+  </si>
+  <si>
+    <t>LCOE [USD/kWh</t>
+  </si>
+  <si>
+    <t>Upgrade 1</t>
+  </si>
+  <si>
+    <t>Battery Nominal Capacity [kWh]</t>
+  </si>
+  <si>
+    <t>Generator 1 Nominal Capacity [kW]</t>
+  </si>
+  <si>
+    <t>Generator 2 Nominal Capacity [kW]</t>
+  </si>
+  <si>
+    <t>Renewable 1 Nominal Capacity [kW]</t>
+  </si>
+  <si>
+    <t>Renewable 2 Nominal Capacity [kW]</t>
+  </si>
+  <si>
+    <t>Battery Investment [USD]</t>
+  </si>
+  <si>
+    <t>Generator 1 Investment [USD]</t>
+  </si>
+  <si>
+    <t>Generator 2 Investment [USD]</t>
+  </si>
+  <si>
+    <t>Renewable 1 Investment [USD]</t>
+  </si>
+  <si>
+    <t>Renewable 2 Investment [USD]</t>
+  </si>
+  <si>
+    <t>Total Investment [USD]</t>
+  </si>
+  <si>
+    <t>Battery O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Generator O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Renewable O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Total O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Fuel Cost</t>
+  </si>
+  <si>
+    <t>Battery Replacement Cost</t>
+  </si>
+  <si>
+    <t>Lost Load Cost</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Load served by Generator 1 %</t>
+  </si>
+  <si>
+    <t>Load served by Generator 2 %</t>
+  </si>
+  <si>
+    <t>Load served by total RES %</t>
+  </si>
+  <si>
+    <t>Curtailment %</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +155,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +271,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +323,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,13 +516,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>707882.338582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>262452.94930500002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>262452.94930500002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>998943.01949199999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>553513.63021500001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.67658153163272128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>508.909305012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>32.708748857899998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>27.5467396833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>155.157341903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5.927838509339999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>376592.88570888003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>13740.945395203789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>8264.0219049899988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>573104.67378711107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>27240.492693895569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>998943.01949008054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>7531.8577141776004</v>
+      </c>
+      <c r="C2">
+        <v>2117.8565109694791</v>
+      </c>
+      <c r="D2">
+        <v>12006.903329620131</v>
+      </c>
+      <c r="E2">
+        <v>21656.61755476721</v>
+      </c>
+      <c r="F2">
+        <v>84311.981381491467</v>
+      </c>
+      <c r="G2">
+        <v>25202.447014969541</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>7531.8577141776004</v>
+      </c>
+      <c r="C3">
+        <v>2117.8565109694791</v>
+      </c>
+      <c r="D3">
+        <v>12006.903329620131</v>
+      </c>
+      <c r="E3">
+        <v>21656.61755476721</v>
+      </c>
+      <c r="F3">
+        <v>84409.149516779638</v>
+      </c>
+      <c r="G3">
+        <v>25216.136282408748</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>28.123121486213321</v>
+      </c>
+      <c r="C2">
+        <v>9.6829818488983648</v>
+      </c>
+      <c r="D2">
+        <v>64.883202664921399</v>
+      </c>
+      <c r="E2">
+        <v>7.5523904690033197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>27.803906084728219</v>
+      </c>
+      <c r="C3">
+        <v>10.02647155226561</v>
+      </c>
+      <c r="D3">
+        <v>64.869445489693732</v>
+      </c>
+      <c r="E3">
+        <v>7.5631227826089251</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298493D7-197D-4AFD-A14A-1ABE4C89CFAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4B954E-E7BB-4F8A-8116-0DF532E7A21D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Total Costs" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>NPC [USD]</t>
   </si>
   <si>
     <t>Total actualized Operation cost [USD]</t>
-  </si>
-  <si>
-    <t>Total non-actualized Operation cost [USD]</t>
   </si>
   <si>
     <t>Total actualized Investment cost [USD]</t>
@@ -517,67 +514,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>707882.338582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>373723.33889900002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>262452.94930500002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>322513.12391899998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>262452.94930500002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>384023.54050200002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>998943.01949199999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>332813.32552299998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>553513.63021500001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.67658153163272128</v>
+        <v>0.3571982167907834</v>
       </c>
     </row>
   </sheetData>
@@ -591,103 +580,103 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>5.3158528266100008E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>508.909305012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>70.604926507499997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>32.708748857899998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>43.435200063400004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>27.5467396833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>92.409090404799997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>155.157341903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>5.5650272516400002E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>5.927838509339999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>0.39337310916913998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>376592.88570888003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>29661.12962580075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>13740.945395203789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>13030.56001902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>8264.0219049899988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>341331.45722820982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>573104.67378711107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>2.5573247980823871E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>27240.492693895569</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B12">
-        <v>998943.01949008054</v>
+        <v>384023.54050187219</v>
       </c>
     </row>
   </sheetData>
@@ -701,88 +690,88 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B2">
-        <v>7531.8577141776004</v>
+        <v>7.8674621833828007E-3</v>
       </c>
       <c r="C2">
-        <v>2117.8565109694791</v>
+        <v>4138.8633642918749</v>
       </c>
       <c r="D2">
-        <v>12006.903329620131</v>
+        <v>6826.6291496788454</v>
       </c>
       <c r="E2">
-        <v>21656.61755476721</v>
+        <v>10965.500381432899</v>
       </c>
       <c r="F2">
-        <v>84311.981381491467</v>
+        <v>150291.0087386785</v>
       </c>
       <c r="G2">
-        <v>25202.447014969541</v>
+        <v>5.6681316501663033E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>7531.8577141776004</v>
+        <v>7.8674621833828007E-3</v>
       </c>
       <c r="C3">
-        <v>2117.8565109694791</v>
+        <v>4138.8633642918749</v>
       </c>
       <c r="D3">
-        <v>12006.903329620131</v>
+        <v>6826.6291496788454</v>
       </c>
       <c r="E3">
-        <v>21656.61755476721</v>
+        <v>10965.500381432899</v>
       </c>
       <c r="F3">
-        <v>84409.149516779638</v>
+        <v>150291.0010620206</v>
       </c>
       <c r="G3">
-        <v>25216.136282408748</v>
+        <v>5.6674539760673173E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -799,60 +788,60 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>63.042880449778529</v>
+      </c>
+      <c r="C2">
+        <v>5.0572701690140596</v>
+      </c>
+      <c r="D2">
+        <v>31.899855489291699</v>
+      </c>
+      <c r="E2">
+        <v>10.069713626069801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>28.123121486213321</v>
-      </c>
-      <c r="C2">
-        <v>9.6829818488983648</v>
-      </c>
-      <c r="D2">
-        <v>64.883202664921399</v>
-      </c>
-      <c r="E2">
-        <v>7.5523904690033197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B3">
-        <v>27.803906084728219</v>
+        <v>63.042938341288803</v>
       </c>
       <c r="C3">
-        <v>10.02647155226561</v>
+        <v>5.0572121527303668</v>
       </c>
       <c r="D3">
-        <v>64.869445489693732</v>
+        <v>31.899855609597719</v>
       </c>
       <c r="E3">
-        <v>7.5631227826089251</v>
+        <v>10.069713529177401</v>
       </c>
     </row>
   </sheetData>
